--- a/userDownload/planner.xlsx
+++ b/userDownload/planner.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Daily schedule" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0"/>
@@ -15,28 +15,295 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
   <si>
     <t>Hello World !</t>
+  </si>
+  <si>
+    <t>Meal Plan Sherley Bermudez BMR=2107 BMI=46.20</t>
+  </si>
+  <si>
+    <t>Slims Fitness  "Get Fit Stay Fit Live Fit"</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>         Friday</t>
+  </si>
+  <si>
+    <t> Saturday</t>
+  </si>
+  <si>
+    <t>Breakfast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 lg egg whites cooked together w 1/3 cup of chopped spinach, 1/3 cup of strawberries </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 lg egg whites, 2 slices of (Applegate) turkey bacon, 1/2 cup of blueberries </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 lg eggs w/ (1) yolk, 1 toasted slice of (Rudis) spelt bread w/ almond butter, 1/3 cup of raspberries </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Almond Butter Banana Shake) 1 cup of (Silk) unsweetned almond milk, 1/3 cup of chopped strawberries, 1/4 cup of blueberries, 1/2 banana, 1 tbs of almond butter </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 lg egg whites cooked together w 1/3 cup of chopped green &amp; red peppers, 1 slice of (Rudis) 100% spelt bread, 1/2 cup chopped blueberries </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 lg egg whites, 2 slices of (Applegate) turkey bacon, 1/2 cup of blackberries </t>
+  </si>
+  <si>
+    <t>2 lg eggs w/ (1) yolk, 1 toasted slice of (Rudis) spelt bread w/ almond butter, 1/3 cup of blackberries</t>
+  </si>
+  <si>
+    <t>Snack</t>
+  </si>
+  <si>
+    <t>2 toasted slices of (Rudis) spelt bread &amp; avocado (avocado toast)</t>
+  </si>
+  <si>
+    <t>1 cup of chopped cantaloupe, 1/3 cup of chopped strawberries</t>
+  </si>
+  <si>
+    <t>1/3 cup of (uncooked) original oatmeal cooked in (Silk) unsweetened almond milk, sprinkle cinnamon on top, 1 apple</t>
+  </si>
+  <si>
+    <t>1 so delicious dairy free coconut lime yogurt, 1/3 cup of unsalted almonds</t>
+  </si>
+  <si>
+    <t>1/3 cup of (uncooked) original oatmeal cooked in (Silk) unsweetened almond milk, sprinkle cinnamon on top w/ 1/3 cup of blueberries</t>
+  </si>
+  <si>
+    <t>Lunch</t>
+  </si>
+  <si>
+    <t>5 oz. Salmon fillet cooked in honey garlic &amp; drizzle lemon on top, 1 cup of chopped spinach &amp; 1/2 cup of chopped kale as bed, (1) 3" sweet potato w/ cinnamon on top</t>
+  </si>
+  <si>
+    <t>(BBQ Chicken Fajitas) 5 oz. of skinless chicken cooked w/ (The SHED) bbq sauce, (2) spinach tortillas &amp; add 1/4 cup chopped fresh herbs (rosemary, thyme, sage, parsley, oregano,  tomatoes, cilantro)</t>
+  </si>
+  <si>
+    <t>4 oz. of sirloin,1/2 cup of cauliflower rice, 1/2 cup of chopped broccoli, 1 serving of  wholly guacamole cup</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5 oz. of Lean turkey ground meat cooked together w/ 1/3 cup of yellow &amp; red peppers, 1 cup of chopped asparagus</t>
+  </si>
+  <si>
+    <t>1 cup of garlic roasted spaghetti squash as (bed) add 4 oz. of flounder on top, 1 cup of chopped green beans, 1/2 cup of chopped brussels sprouts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 oz. of skinless chicken breast stuffed w/spinach &amp; sundried tomatoes, 1/2 cup of cooked jasmine rice w/ 1/4 cup of pinto beans, 1 serving of wholly guacamole cup </t>
+  </si>
+  <si>
+    <t>4 oz. of 93% lean 7% fat ground beef cooked w/ 1/3 cup of green &amp; red peppers, (1) 3" sweet potato, 1 serving cup of wholly guacamole</t>
+  </si>
+  <si>
+    <t>1 kiwi, 1/3 cup of chopped mango, 1/4 cup of unsalted almonds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/2 cup of chopped strawberries, 1/2 cup of chopped pineapple </t>
+  </si>
+  <si>
+    <t>1 banana w/ 1 tbs of almond butter, 1/3 cup of unsalted almonds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 apple w/ 1 tbs of almond butter </t>
+  </si>
+  <si>
+    <t>Dinner</t>
+  </si>
+  <si>
+    <t>5 oz. of Lean turkey ground meat cooked together w/ 1/3 cup of yellow &amp; red peppers, 1 cup of chopped asparagus</t>
+  </si>
+  <si>
+    <t>4 oz. of sirloin, 1/2 cup of cauliflower rice, 1/2 cup of chopped broccoli, 1 serving of  wholly guacamole cup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 cup of garlic roasted spaghetti squash as (bed) add 4 oz.of flounder on top, 1 cup of chopped green beans, 1/2 cup of chopped brussels sprouts </t>
+  </si>
+  <si>
+    <t>CHEAT MEAL IN MODERATION!!!!!!</t>
+  </si>
+  <si>
+    <t>1/2 cup of frozen mixed berries, 1/4 cup of diced beets, 1 banana, 1 tsp of chia seeds, 1 cup of (Silk) unsweetened almond milk add ice for preference (shake)</t>
+  </si>
+  <si>
+    <t>1/2 cup of orange juice, water, frozen mango chunks, frozen strawberries, frozen banana (shake)</t>
+  </si>
+  <si>
+    <t>3 celery stalks w/ organic peanut butter &amp; 1/3 cup of raisins</t>
+  </si>
+  <si>
+    <t>1 cup of frozen strawberries, 1/4 cup of blueberries, 1/2 cup of chopped kale, 1/2 cup of chopped spinach, 1 tbs of chia seeds, 1 cup of (Silk) unsweetened almond milk</t>
+  </si>
+  <si>
+    <t>Calories</t>
+  </si>
+  <si>
+    <t>NOTES</t>
+  </si>
+  <si>
+    <t>Cooking Oils</t>
+  </si>
+  <si>
+    <t>Water intake 1/2 body weight in oz.=128 Take 1 shot in am/pm daily of braggs apple cider vinegar. Add lemon &amp; chopped strawberries to your water for daily consumption. Read the ingredients on the back of the labels to ensure it's natural.</t>
+  </si>
+  <si>
+    <t>Organic Coconut Oil, Extra Virgin Olive Oil  4/1/18 - 5/12/18</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="m&quot;/&quot;d"/>
+    <numFmt numFmtId="165" formatCode="h&quot;:&quot;mm&quot; &quot;AM/PM&quot; &quot;"/>
+  </numFmts>
+  <fonts count="14">
     <font>
       <b val="0"/>
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="10"/>
+      <color rgb="FF666666"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="18"/>
+      <color rgb="FF666666"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="12"/>
+      <color rgb="FF666666"/>
+      <name val="Comic Sans MS"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="10"/>
+      <color rgb="FF434343"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
+      <color rgb="FF434343"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="9"/>
+      <color rgb="FF555555"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="10"/>
+      <color rgb="FF555555"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="9"/>
+      <color rgb="FF434343"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="9"/>
+      <color rgb="FF0F9D58"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="9"/>
+      <color rgb="FF434343"/>
+      <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -46,16 +313,219 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3F3F3"/>
+        <bgColor rgb="FFF3F3F3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor rgb="FF00FF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFFF"/>
+        <bgColor rgb="FF00FFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEFEFEF"/>
+        <bgColor rgb="FFEFEFEF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF00FF"/>
+        <bgColor rgb="FFFF00FF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border/>
+    <border>
+      <bottom style="thin">
+        <color rgb="FFD9D9D9"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FFD9D9D9"/>
+      </right>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FFD9D9D9"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FFF3F3F3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="FFD9D9D9"/>
+      </top>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+  <cellXfs count="44">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="3" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="9" numFmtId="165" fillId="4" borderId="3" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="4" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="18" fillId="4" borderId="3" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="4" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="9" numFmtId="0" fillId="5" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="9" numFmtId="0" fillId="6" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="9" numFmtId="0" fillId="7" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="8" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="9" numFmtId="0" fillId="9" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="9" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="9" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="10" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="11" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -64,6 +534,41 @@
   <dxfs count="0"/>
   <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>933450</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="876300" cy="981075"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="image1.png" descr=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -355,25 +860,369 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="false" showRowColHeaders="1">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr customHeight="true" defaultRowHeight="15.75" defaultColWidth="14.42578125" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="3" customWidth="true" style="0"/>
+    <col min="2" max="2" width="10.140625" customWidth="true" style="0"/>
+    <col min="3" max="3" width="21.5703125" customWidth="true" style="0"/>
+    <col min="4" max="4" width="21.5703125" customWidth="true" style="0"/>
+    <col min="5" max="5" width="21.5703125" customWidth="true" style="0"/>
+    <col min="6" max="6" width="21.5703125" customWidth="true" style="0"/>
+    <col min="7" max="7" width="21.5703125" customWidth="true" style="0"/>
+    <col min="8" max="8" width="21.5703125" customWidth="true" style="0"/>
+    <col min="9" max="9" width="21.5703125" customWidth="true" style="0"/>
+    <col min="10" max="10" width="3" customWidth="true" style="0"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" customHeight="1" ht="58.5">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+    </row>
+    <row r="2" spans="1:10" customHeight="1" ht="14.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" customHeight="1" ht="78">
+      <c r="A3" s="9"/>
+      <c r="B3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="13"/>
+    </row>
+    <row r="4" spans="1:10" customHeight="1" ht="2.25">
+      <c r="A4" s="9"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="13"/>
+    </row>
+    <row r="5" spans="1:10" customHeight="1" ht="63">
+      <c r="A5" s="9"/>
+      <c r="B5" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="13"/>
+    </row>
+    <row r="6" spans="1:10" customHeight="1" ht="3">
+      <c r="A6" s="9"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="13"/>
+    </row>
+    <row r="7" spans="1:10" customHeight="1" ht="85.5">
+      <c r="A7" s="9"/>
+      <c r="B7" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="13"/>
+    </row>
+    <row r="8" spans="1:10" customHeight="1" ht="1.5">
+      <c r="A8" s="9"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="13"/>
+    </row>
+    <row r="9" spans="1:10" customHeight="1" ht="39.75">
+      <c r="A9" s="9"/>
+      <c r="B9" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" s="13"/>
+    </row>
+    <row r="10" spans="1:10" customHeight="1" ht="79.5">
+      <c r="A10" s="9"/>
+      <c r="B10" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" s="13"/>
+    </row>
+    <row r="11" spans="1:10" customHeight="1" ht="1.5">
+      <c r="A11" s="9"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="13"/>
+    </row>
+    <row r="12" spans="1:10" customHeight="1" ht="1.5">
+      <c r="A12" s="26"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="29"/>
+    </row>
+    <row r="13" spans="1:10" customHeight="1" ht="87">
+      <c r="A13" s="9"/>
+      <c r="B13" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J13" s="13"/>
+    </row>
+    <row r="14" spans="1:10" customHeight="1" ht="22.5">
+      <c r="A14" s="30"/>
+      <c r="B14" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="32">
+        <v>1483</v>
+      </c>
+      <c r="D14" s="32">
+        <v>1602</v>
+      </c>
+      <c r="E14" s="32">
+        <v>1826</v>
+      </c>
+      <c r="F14" s="32">
+        <v>1762</v>
+      </c>
+      <c r="G14" s="32">
+        <v>1534</v>
+      </c>
+      <c r="H14" s="32">
+        <v>1703</v>
+      </c>
+      <c r="I14" s="32">
+        <v>798</v>
+      </c>
+      <c r="J14" s="33"/>
+    </row>
+    <row r="15" spans="1:10" customHeight="1" ht="12.75">
+      <c r="A15" s="34"/>
+      <c r="B15" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="34"/>
+    </row>
+    <row r="16" spans="1:10" customHeight="1" ht="36.75">
+      <c r="A16" s="38"/>
+      <c r="B16" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="38"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <mergeCells>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="G16:I16"/>
+  </mergeCells>
+  <printOptions gridLines="true" gridLinesSet="true" horizontalCentered="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="1" orientation="landscape" scale="100" fitToHeight="0" fitToWidth="1"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
     <oddFooter/>
@@ -382,5 +1231,6 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/userDownload/planner.xlsx
+++ b/userDownload/planner.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
   <si>
     <t>Meal Plan BMR= BMI=</t>
   </si>
@@ -44,36 +44,7 @@
     <t> Saturday</t>
   </si>
   <si>
-    <t>New Meal</t>
-  </si>
-  <si>
-    <t>GREEK YOGURT (1.0 CUP)
-APPLE (1.0 MEDIUM)</t>
-  </si>
-  <si>
-    <t>test1</t>
-  </si>
-  <si>
-    <t>CRAB (6.0 0Z)
-HALIBUT (2.0 0Z)</t>
-  </si>
-  <si>
-    <t>k k</t>
-  </si>
-  <si>
-    <t>ARBYS, roast beef sandwich, classic (3.0 sandwich)</t>
-  </si>
-  <si>
-    <t>new lunch</t>
-  </si>
-  <si>
-    <t>Test2</t>
-  </si>
-  <si>
     <t>Calories</t>
-  </si>
-  <si>
-    <t>1,083.0</t>
   </si>
   <si>
     <t>NOTES</t>
@@ -241,7 +212,7 @@
       <name val="arial"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -269,24 +240,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="0000FF00"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FF0000"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0000FFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFFFF"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -321,7 +274,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="22">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -385,19 +338,7 @@
     <xf xfId="0" fontId="14" numFmtId="0" fillId="4" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="14" numFmtId="0" fillId="5" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="14" numFmtId="0" fillId="6" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="14" numFmtId="0" fillId="7" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="14" numFmtId="0" fillId="8" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false" indent="10"/>
-    </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="8" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="5" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -735,10 +676,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J995"/>
+  <dimension ref="A1:J990"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="true" defaultRowHeight="15" defaultColWidth="14.43" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -799,154 +740,81 @@
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="14.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="7"/>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" customHeight="1" ht="14.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="21" t="s">
+    <row r="4" spans="1:10" customHeight="1" ht="22.5">
+      <c r="A4" s="9"/>
+      <c r="B4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="5"/>
+      <c r="C4" s="21">
+        <v>0</v>
+      </c>
+      <c r="D4" s="21">
+        <v>0</v>
+      </c>
+      <c r="E4" s="21">
+        <v>0</v>
+      </c>
+      <c r="F4" s="21">
+        <v>0</v>
+      </c>
+      <c r="G4" s="21">
+        <v>0</v>
+      </c>
+      <c r="H4" s="21">
+        <v>0</v>
+      </c>
+      <c r="I4" s="21">
+        <v>0</v>
+      </c>
+      <c r="J4" s="11"/>
     </row>
-    <row r="5" spans="1:10" customHeight="1" ht="14.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="22" t="s">
+    <row r="5" spans="1:10" customHeight="1" ht="12.75">
+      <c r="A5" s="12"/>
+      <c r="B5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24" t="s">
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="12"/>
+    </row>
+    <row r="6" spans="1:10" customHeight="1" ht="36.75">
+      <c r="A6" s="15"/>
+      <c r="B6" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="5"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="15"/>
     </row>
-    <row r="6" spans="1:10" customHeight="1" ht="14.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="5"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="14.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="5"/>
-    </row>
-    <row r="8" spans="1:10" customHeight="1" ht="14.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="5"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="22.5">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="25">
-        <v>0</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="25">
-        <v>223</v>
-      </c>
-      <c r="F9" s="25">
-        <v>0</v>
-      </c>
-      <c r="G9" s="25">
-        <v>204.7</v>
-      </c>
-      <c r="H9" s="25">
-        <v>0</v>
-      </c>
-      <c r="I9" s="25">
-        <v>0</v>
-      </c>
-      <c r="J9" s="11"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="12.75">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="12"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="36.75">
-      <c r="A11" s="15"/>
-      <c r="B11" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="15"/>
-    </row>
+    <row r="7" spans="1:10" customHeight="1" ht="15.75"/>
+    <row r="8" spans="1:10" customHeight="1" ht="15.75"/>
+    <row r="9" spans="1:10" customHeight="1" ht="15.75"/>
+    <row r="10" spans="1:10" customHeight="1" ht="15.75"/>
+    <row r="11" spans="1:10" customHeight="1" ht="15.75"/>
     <row r="12" spans="1:10" customHeight="1" ht="15.75"/>
     <row r="13" spans="1:10" customHeight="1" ht="15.75"/>
     <row r="14" spans="1:10" customHeight="1" ht="15.75"/>
@@ -1926,16 +1794,11 @@
     <row r="988" spans="1:10" customHeight="1" ht="15.75"/>
     <row r="989" spans="1:10" customHeight="1" ht="15.75"/>
     <row r="990" spans="1:10" customHeight="1" ht="15.75"/>
-    <row r="991" spans="1:10" customHeight="1" ht="15.75"/>
-    <row r="992" spans="1:10" customHeight="1" ht="15.75"/>
-    <row r="993" spans="1:10" customHeight="1" ht="15.75"/>
-    <row r="994" spans="1:10" customHeight="1" ht="15.75"/>
-    <row r="995" spans="1:10" customHeight="1" ht="15.75"/>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="G6:I6"/>
   </mergeCells>
   <printOptions gridLines="true" gridLinesSet="true" horizontalCentered="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/userDownload/planner.xlsx
+++ b/userDownload/planner.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
   <si>
     <t>Meal Plan BMR= BMI=</t>
   </si>
@@ -44,7 +44,36 @@
     <t> Saturday</t>
   </si>
   <si>
+    <t>New Meal</t>
+  </si>
+  <si>
+    <t>GREEK YOGURT (1.0 CUP)
+APPLE (1.0 MEDIUM)</t>
+  </si>
+  <si>
+    <t>test1</t>
+  </si>
+  <si>
+    <t>CRAB (6.0 0Z)
+HALIBUT (2.0 0Z)</t>
+  </si>
+  <si>
+    <t>k k</t>
+  </si>
+  <si>
+    <t>ARBYS, roast beef sandwich, classic (3.0 sandwich)</t>
+  </si>
+  <si>
+    <t>new lunch</t>
+  </si>
+  <si>
+    <t>Test2</t>
+  </si>
+  <si>
     <t>Calories</t>
+  </si>
+  <si>
+    <t>1,083.0</t>
   </si>
   <si>
     <t>NOTES</t>
@@ -212,7 +241,7 @@
       <name val="arial"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -240,6 +269,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="0000FF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF0000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0000FFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFFF"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -274,7 +321,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -338,7 +385,19 @@
     <xf xfId="0" fontId="14" numFmtId="0" fillId="4" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="5" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="14" numFmtId="0" fillId="5" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="14" numFmtId="0" fillId="6" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="14" numFmtId="0" fillId="7" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="14" numFmtId="0" fillId="8" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false" indent="10"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="8" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -676,10 +735,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J990"/>
+  <dimension ref="A1:J995"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="true" defaultRowHeight="15" defaultColWidth="14.43" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -740,81 +799,154 @@
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="14.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="7"/>
+      <c r="B3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" customHeight="1" ht="22.5">
-      <c r="A4" s="9"/>
-      <c r="B4" s="10" t="s">
+    <row r="4" spans="1:10" customHeight="1" ht="14.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="1:10" customHeight="1" ht="14.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="5"/>
+    </row>
+    <row r="6" spans="1:10" customHeight="1" ht="14.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="1:10" customHeight="1" ht="14.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="1:10" customHeight="1" ht="14.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="1:10" customHeight="1" ht="22.5">
+      <c r="A9" s="9"/>
+      <c r="B9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="25">
         <v>0</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D9" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="25">
+        <v>223</v>
+      </c>
+      <c r="F9" s="25">
         <v>0</v>
       </c>
-      <c r="E4" s="21">
+      <c r="G9" s="25">
+        <v>204.7</v>
+      </c>
+      <c r="H9" s="25">
         <v>0</v>
       </c>
-      <c r="F4" s="21">
+      <c r="I9" s="25">
         <v>0</v>
       </c>
-      <c r="G4" s="21">
-        <v>0</v>
-      </c>
-      <c r="H4" s="21">
-        <v>0</v>
-      </c>
-      <c r="I4" s="21">
-        <v>0</v>
-      </c>
-      <c r="J4" s="11"/>
+      <c r="J9" s="11"/>
     </row>
-    <row r="5" spans="1:10" customHeight="1" ht="12.75">
-      <c r="A5" s="12"/>
-      <c r="B5" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="12"/>
+    <row r="10" spans="1:10" customHeight="1" ht="12.75">
+      <c r="A10" s="12"/>
+      <c r="B10" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="12"/>
     </row>
-    <row r="6" spans="1:10" customHeight="1" ht="36.75">
-      <c r="A6" s="15"/>
-      <c r="B6" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="15"/>
+    <row r="11" spans="1:10" customHeight="1" ht="36.75">
+      <c r="A11" s="15"/>
+      <c r="B11" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="15"/>
     </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.75"/>
-    <row r="8" spans="1:10" customHeight="1" ht="15.75"/>
-    <row r="9" spans="1:10" customHeight="1" ht="15.75"/>
-    <row r="10" spans="1:10" customHeight="1" ht="15.75"/>
-    <row r="11" spans="1:10" customHeight="1" ht="15.75"/>
     <row r="12" spans="1:10" customHeight="1" ht="15.75"/>
     <row r="13" spans="1:10" customHeight="1" ht="15.75"/>
     <row r="14" spans="1:10" customHeight="1" ht="15.75"/>
@@ -1794,11 +1926,16 @@
     <row r="988" spans="1:10" customHeight="1" ht="15.75"/>
     <row r="989" spans="1:10" customHeight="1" ht="15.75"/>
     <row r="990" spans="1:10" customHeight="1" ht="15.75"/>
+    <row r="991" spans="1:10" customHeight="1" ht="15.75"/>
+    <row r="992" spans="1:10" customHeight="1" ht="15.75"/>
+    <row r="993" spans="1:10" customHeight="1" ht="15.75"/>
+    <row r="994" spans="1:10" customHeight="1" ht="15.75"/>
+    <row r="995" spans="1:10" customHeight="1" ht="15.75"/>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="G11:I11"/>
   </mergeCells>
   <printOptions gridLines="true" gridLinesSet="true" horizontalCentered="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/userDownload/planner.xlsx
+++ b/userDownload/planner.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
   <si>
     <t>Meal Plan BMR= BMI=</t>
   </si>
@@ -45,23 +45,28 @@
   </si>
   <si>
     <t>New Meal</t>
+  </si>
+  <si>
+    <t>test1</t>
+  </si>
+  <si>
+    <t>HALIBUT (2.0 0Z)
+CRAB (6.0 0Z)</t>
+  </si>
+  <si>
+    <t>k k</t>
+  </si>
+  <si>
+    <t>EZEKIEL BREAD (1.0 SLICE)
+ARBYS, roast beef sandwich, classic (3.0 sandwich)</t>
   </si>
   <si>
     <t>GREEK YOGURT (1.0 CUP)
 APPLE (1.0 MEDIUM)</t>
   </si>
   <si>
-    <t>test1</t>
-  </si>
-  <si>
-    <t>CRAB (6.0 0Z)
-HALIBUT (2.0 0Z)</t>
-  </si>
-  <si>
-    <t>k k</t>
-  </si>
-  <si>
-    <t>ARBYS, roast beef sandwich, classic (3.0 sandwich)</t>
+    <t>APPLE (1.0 MEDIUM)
+GREEK YOGURT (1.0 CUP)</t>
   </si>
   <si>
     <t>new lunch</t>
@@ -73,7 +78,7 @@
     <t>Calories</t>
   </si>
   <si>
-    <t>1,083.0</t>
+    <t>1,163.0</t>
   </si>
   <si>
     <t>NOTES</t>
@@ -804,9 +809,7 @@
       </c>
       <c r="C3" s="24"/>
       <c r="D3" s="24"/>
-      <c r="E3" s="24" t="s">
-        <v>10</v>
-      </c>
+      <c r="E3" s="24"/>
       <c r="F3" s="24"/>
       <c r="G3" s="24"/>
       <c r="H3" s="24"/>
@@ -830,14 +833,14 @@
     <row r="5" spans="1:10" customHeight="1" ht="14.25">
       <c r="A5" s="5"/>
       <c r="B5" s="22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="24"/>
       <c r="D5" s="24"/>
       <c r="E5" s="24"/>
       <c r="F5" s="24"/>
       <c r="G5" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H5" s="24"/>
       <c r="I5" s="24"/>
@@ -846,23 +849,27 @@
     <row r="6" spans="1:10" customHeight="1" ht="14.25">
       <c r="A6" s="5"/>
       <c r="B6" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="24"/>
       <c r="D6" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
       <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
+      <c r="H6" s="24" t="s">
+        <v>15</v>
+      </c>
       <c r="I6" s="24"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10" customHeight="1" ht="14.25">
       <c r="A7" s="5"/>
       <c r="B7" s="20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" s="24"/>
       <c r="D7" s="24"/>
@@ -876,7 +883,7 @@
     <row r="8" spans="1:10" customHeight="1" ht="14.25">
       <c r="A8" s="5"/>
       <c r="B8" s="21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="24"/>
@@ -890,25 +897,25 @@
     <row r="9" spans="1:10" customHeight="1" ht="22.5">
       <c r="A9" s="9"/>
       <c r="B9" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" s="25">
         <v>0</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E9" s="25">
+        <v>0</v>
+      </c>
+      <c r="F9" s="25">
         <v>223</v>
-      </c>
-      <c r="F9" s="25">
-        <v>0</v>
       </c>
       <c r="G9" s="25">
         <v>204.7</v>
       </c>
       <c r="H9" s="25">
-        <v>0</v>
+        <v>223</v>
       </c>
       <c r="I9" s="25">
         <v>0</v>
@@ -918,14 +925,14 @@
     <row r="10" spans="1:10" customHeight="1" ht="12.75">
       <c r="A10" s="12"/>
       <c r="B10" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
       <c r="G10" s="13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
@@ -934,14 +941,14 @@
     <row r="11" spans="1:10" customHeight="1" ht="36.75">
       <c r="A11" s="15"/>
       <c r="B11" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
       <c r="F11" s="18"/>
       <c r="G11" s="19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
